--- a/nmb.xlsx
+++ b/nmb.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\GIT\cnm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E8B3D1-73FC-4C76-BE6A-9143C18F15B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317FEC8-689C-4439-BC9C-805C9002D7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,13 +26,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P60 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P60 Art</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G6:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -379,4 +392,49 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DFE2BA-8DB8-4079-9775-D2A258743924}">
+  <dimension ref="A4:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nmb.xlsx
+++ b/nmb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\GIT\cnm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317FEC8-689C-4439-BC9C-805C9002D7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C38D4F-F75F-410C-A764-A54E9D36D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>P60 Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,41 +401,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DFE2BA-8DB8-4079-9775-D2A258743924}">
-  <dimension ref="A4:B7"/>
+  <dimension ref="A4:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>312</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>657</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44928</v>
       </c>
     </row>
   </sheetData>

--- a/nmb.xlsx
+++ b/nmb.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\GIT\cnm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C38D4F-F75F-410C-A764-A54E9D36D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A66A5-E4B0-49E9-A8B0-C479B6EB163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +50,14 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为的竞品三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A54 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DFE2BA-8DB8-4079-9775-D2A258743924}">
   <dimension ref="A4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -487,4 +496,33 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34184B85-E491-4AA1-BF32-966793458DD8}">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nmb.xlsx
+++ b/nmb.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\GIT\cnm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C38D4F-F75F-410C-A764-A54E9D36D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070F2E48-E3E6-4E61-9AB6-0EDEC5A400E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +50,10 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果也不错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DFE2BA-8DB8-4079-9775-D2A258743924}">
   <dimension ref="A4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -487,4 +492,25 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B524D5-8242-4405-9737-474EF98C3C5F}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nmb.xlsx
+++ b/nmb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\GIT\cnm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A66A5-E4B0-49E9-A8B0-C479B6EB163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029566D5-895A-4D33-B537-FB22E5454DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,19 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -500,25 +509,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34184B85-E491-4AA1-BF32-966793458DD8}">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
         <v>21</v>
+      </c>
+      <c r="D4">
+        <f>C4+100</f>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
